--- a/data/machine_learning_attendance.xlsx
+++ b/data/machine_learning_attendance.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80.7</v>
+        <v>61.8</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60.4</v>
+        <v>65.2</v>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v>26</v>
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66.7</v>
+        <v>83.5</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.2</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74.2</v>
+        <v>75.2</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/machine_learning_attendance.xlsx
+++ b/data/machine_learning_attendance.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61.8</v>
+        <v>80.7</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83.5</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>99.8</v>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75.2</v>
+        <v>77.3</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/machine_learning_attendance.xlsx
+++ b/data/machine_learning_attendance.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80.7</v>
+        <v>71.2</v>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67.09999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>73.3</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99.8</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77.3</v>
+        <v>92.3</v>
       </c>
       <c r="D6" t="n">
         <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/machine_learning_attendance.xlsx
+++ b/data/machine_learning_attendance.xlsx
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71.2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>64.7</v>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.3</v>
+        <v>97.2</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
